--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1070.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1070.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.695489115010541</v>
+        <v>1.198632001876831</v>
       </c>
       <c r="B1">
+        <v>2.603037357330322</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>2.468249835525643</v>
-      </c>
       <c r="D1">
-        <v>1.527609614017017</v>
+        <v>2.182494401931763</v>
       </c>
       <c r="E1">
-        <v>1.220854864492689</v>
+        <v>1.174451231956482</v>
       </c>
     </row>
   </sheetData>
